--- a/_12_DistributedSlaeSolver/DistributedSlaeSolver.xlsx
+++ b/_12_DistributedSlaeSolver/DistributedSlaeSolver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ComputingNodes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="173">
   <si>
     <t>Class ComputingNode</t>
   </si>
@@ -531,6 +531,18 @@
   </si>
   <si>
     <t>*LinearArrays</t>
+  </si>
+  <si>
+    <t>Класс GridBlock1D - класс  описывающий одномерный блок расчетной сетки</t>
+  </si>
+  <si>
+    <t>Class GridBlock1D</t>
+  </si>
+  <si>
+    <t>Одномерный массив фрагментов блока</t>
+  </si>
+  <si>
+    <t>Dim1D&lt;*GridBlock&gt;</t>
   </si>
 </sst>
 </file>
@@ -1757,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G33"/>
+  <dimension ref="B2:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,45 +1804,45 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C10" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -1876,7 +1888,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
         <v>84</v>
@@ -1887,59 +1899,59 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>92</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" t="s">
-        <v>67</v>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
         <v>84</v>
@@ -1950,12 +1962,34 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>59</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>95</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1966,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F28"/>
+  <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,173 +2045,258 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>67</v>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>113</v>
       </c>
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>104</v>
-      </c>
-    </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
+      <c r="B22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>113</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
         <v>161</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" t="s">
         <v>115</v>
       </c>
     </row>

--- a/_12_DistributedSlaeSolver/DistributedSlaeSolver.xlsx
+++ b/_12_DistributedSlaeSolver/DistributedSlaeSolver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ComputingNodes" sheetId="1" r:id="rId1"/>
@@ -916,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1132,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1224,7 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,7 +2400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
